--- a/documentos/analise-de-projeto/planejamento-sprint-1.xlsx
+++ b/documentos/analise-de-projeto/planejamento-sprint-1.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
   </bookViews>
   <sheets>
-    <sheet name="Product_Backlog" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Spring_Backlog_1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Product_Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Spring_Backlog_1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -215,7 +214,7 @@
     <t>Observação</t>
   </si>
   <si>
-    <t>Criar fluxo de tela </t>
+    <t>Criar fluxo de tela</t>
   </si>
   <si>
     <t>Bruno</t>
@@ -248,7 +247,7 @@
     <t>Script BD</t>
   </si>
   <si>
-    <t> Criar Repositório</t>
+    <t>Criar Repositório</t>
   </si>
   <si>
     <t>Esforço</t>
@@ -293,7 +292,7 @@
     <t>Realizar testes de conexao com o repositório</t>
   </si>
   <si>
-    <t>Matheus </t>
+    <t>Matheus</t>
   </si>
   <si>
     <t>30 min</t>
@@ -302,7 +301,7 @@
     <t>(CONCLUÍDO)Gravar projeto via cliente, clonar projeto dentre outros</t>
   </si>
   <si>
-    <t>Apresentar aos colegas </t>
+    <t>Apresentar aos colegas</t>
   </si>
   <si>
     <t>Criar Ambiente de Desenvolvimento</t>
@@ -344,19 +343,17 @@
     <t>Criar a interface HTML</t>
   </si>
   <si>
-    <t>Criar classe </t>
+    <t>Criar classe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -364,36 +361,21 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF66CC00"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF3333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -406,15 +388,15 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -430,139 +412,117 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -621,60 +581,355 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Escritório">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Escritório">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Escritório">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.36744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="48.1162790697674"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.153488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="39.5023255813953"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.2139534883721"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="8.86046511627907"/>
+    <col min="1" max="1" width="8.375" style="5"/>
+    <col min="2" max="2" width="48.125" style="5"/>
+    <col min="3" max="3" width="22.125" style="5"/>
+    <col min="4" max="4" width="12.125" style="5"/>
+    <col min="5" max="5" width="39.5" style="5"/>
+    <col min="6" max="6" width="26.25" style="5"/>
+    <col min="7" max="1025" width="8.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -684,10 +939,10 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -697,595 +952,595 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+      <c r="D9" s="9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="D10" s="9">
+        <v>3</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>3</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+      <c r="D11" s="9">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="9">
         <v>1</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
         <v>5</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+      <c r="D13" s="9">
+        <v>3</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
         <v>6</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+      <c r="D14" s="9">
+        <v>3</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
         <v>7</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+      <c r="D15" s="9">
+        <v>3</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
         <v>8</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+      <c r="D16" s="9">
+        <v>3</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
         <v>9</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="9">
         <v>1</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
         <v>10</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="n">
+      <c r="D18" s="9">
+        <v>3</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
         <v>11</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="n">
+      <c r="D19" s="9">
+        <v>3</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
         <v>12</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="n">
+      <c r="D20" s="9">
+        <v>3</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
         <v>13</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="n">
+      <c r="D21" s="9">
+        <v>3</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
         <v>14</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="6" t="n">
+      <c r="D22" s="9">
         <v>1</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
         <v>15</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
+      <c r="D23" s="9">
+        <v>3</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
         <v>16</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D24" s="9">
         <v>5</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
         <v>17</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="n">
+      <c r="D25" s="9">
+        <v>3</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
         <v>18</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="6" t="n">
+      <c r="D26" s="9">
         <v>2</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="n">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
         <v>19</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="D27" s="9">
         <v>2</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="n">
+    <row r="30" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
         <v>19</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="D30" s="9">
+        <v>3</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="n">
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
         <v>20</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="n">
+      <c r="D31" s="9">
+        <v>3</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
         <v>21</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="n">
+      <c r="D32" s="9">
+        <v>3</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
         <v>22</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="6" t="n">
+      <c r="D33" s="9">
         <v>1</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="n">
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
         <v>23</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="6" t="n">
+      <c r="D34" s="9">
         <v>2</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="5" t="s">
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="n">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
         <v>24</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="n">
+      <c r="D36" s="9">
+        <v>3</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
         <v>25</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="n">
+      <c r="D37" s="9">
+        <v>3</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
         <v>26</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="n">
+      <c r="D38" s="9">
+        <v>3</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
         <v>27</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="n">
+      <c r="D39" s="9">
+        <v>3</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
         <v>28</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="n">
+      <c r="D40" s="9">
+        <v>3</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
         <v>29</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="n">
+      <c r="D41" s="9">
+        <v>3</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
         <v>30</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="n">
+      <c r="D42" s="9">
+        <v>3</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="9">
         <v>31</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43" s="9">
+        <v>3</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
@@ -1295,87 +1550,87 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="5" t="s">
+    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="n">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="9">
         <v>32</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="6" t="n">
+      <c r="D46" s="9">
         <v>2</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="n">
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="9">
         <v>33</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="6" t="n">
+      <c r="D47" s="9">
         <v>1</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="n">
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="9">
         <v>34</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="n">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="9">
         <v>35</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="n">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="9">
         <v>36</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1385,10 +1640,9 @@
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="A44:F44"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.138888888888889" bottom="0.138888888888889" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0" right="0" top="0.13888888888888901" bottom="0.13888888888888901" header="0" footer="0"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;10&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;10Página &amp;P</oddFooter>
   </headerFooter>
@@ -1396,44 +1650,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C47" activeCellId="0" sqref="C47"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.6511627906977"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.5906976744186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.0604651162791"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="12.0604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="8.86046511627907"/>
+    <col min="1" max="1" width="41.625" style="5"/>
+    <col min="2" max="2" width="36.625" style="5"/>
+    <col min="3" max="3" width="10.5" style="5"/>
+    <col min="4" max="4" width="20" style="5"/>
+    <col min="5" max="6" width="12" style="5"/>
+    <col min="7" max="1025" width="8.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>54</v>
       </c>
@@ -1443,148 +1692,147 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="15" t="n">
+      <c r="D8" s="17">
         <v>42456</v>
       </c>
-      <c r="E8" s="15" t="n">
+      <c r="E8" s="17">
         <v>42458</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="15" t="n">
+      <c r="D9" s="17">
         <v>42457</v>
       </c>
-      <c r="E9" s="15" t="n">
+      <c r="E9" s="17">
         <v>42458</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="15" t="n">
+      <c r="D10" s="17">
         <v>42459</v>
       </c>
-      <c r="E10" s="15" t="n">
+      <c r="E10" s="17">
         <v>42430</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="15" t="n">
+      <c r="D11" s="17">
         <v>30</v>
       </c>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>71</v>
       </c>
@@ -1594,164 +1842,164 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="15" t="n">
+      <c r="D25" s="17">
         <v>42450</v>
       </c>
-      <c r="E25" s="15" t="n">
+      <c r="E25" s="17">
         <v>42450</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="15" t="n">
+      <c r="D26" s="17">
         <v>42450</v>
       </c>
-      <c r="E26" s="15" t="n">
+      <c r="E26" s="17">
         <v>42450</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="15" t="n">
+      <c r="D27" s="17">
         <v>42450</v>
       </c>
-      <c r="E27" s="15" t="n">
+      <c r="E27" s="17">
         <v>42450</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="15" t="n">
+      <c r="D28" s="17">
         <v>42450</v>
       </c>
-      <c r="E28" s="15" t="n">
+      <c r="E28" s="17">
         <v>42450</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="15" t="n">
+      <c r="D29" s="17">
         <v>42450</v>
       </c>
-      <c r="E29" s="15" t="n">
+      <c r="E29" s="17">
         <v>42450</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="15" t="n">
+      <c r="D30" s="17">
         <v>42450</v>
       </c>
-      <c r="E30" s="15" t="n">
+      <c r="E30" s="17">
         <v>42450</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="15" t="n">
+      <c r="D31" s="17">
         <v>42453</v>
       </c>
-      <c r="E31" s="15" t="n">
+      <c r="E31" s="17">
         <v>42453</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1759,29 +2007,35 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>90</v>
       </c>
@@ -1791,160 +2045,160 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="s">
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12" t="s">
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="15" t="n">
+      <c r="D41" s="17">
         <v>42453</v>
       </c>
-      <c r="E41" s="15" t="n">
+      <c r="E41" s="17">
         <v>42453</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="15" t="n">
+      <c r="D42" s="17">
         <v>42453</v>
       </c>
-      <c r="E42" s="15" t="n">
+      <c r="E42" s="17">
         <v>42453</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="18" t="n">
+      <c r="D43" s="20">
         <v>42453</v>
       </c>
-      <c r="E43" s="18" t="n">
+      <c r="E43" s="20">
         <v>42453</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="18" t="n">
+      <c r="D44" s="20">
         <v>42453</v>
       </c>
-      <c r="E44" s="18" t="n">
+      <c r="E44" s="20">
         <v>42453</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="18" t="n">
+      <c r="D45" s="20">
         <v>42453</v>
       </c>
-      <c r="E45" s="18" t="n">
+      <c r="E45" s="20">
         <v>42453</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="3" t="s">
+    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B47" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="s">
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+    </row>
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12" t="s">
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1956,10 +2210,9 @@
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="A39:F39"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.138888888888889" bottom="0.138888888888889" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0" right="0" top="0.13888888888888901" bottom="0.13888888888888901" header="0" footer="0"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;10&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;10Página &amp;P</oddFooter>
   </headerFooter>

--- a/documentos/analise-de-projeto/planejamento-sprint-1.xlsx
+++ b/documentos/analise-de-projeto/planejamento-sprint-1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>Estória de Usuário: CH:4 ID:4 , CH:2 ID:3 - Contato cliente/profissional</t>
+  </si>
+  <si>
+    <t>()</t>
+  </si>
+  <si>
+    <t>não tem dependencia</t>
   </si>
 </sst>
 </file>
@@ -265,18 +271,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -706,14 +712,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -771,7 +777,7 @@
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="7">
         <v>42459</v>
       </c>
@@ -810,6 +816,9 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
+      <c r="F13" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
@@ -827,14 +836,14 @@
       <c r="E15" s="7"/>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -992,32 +1001,35 @@
       <c r="E25" s="7">
         <v>42453</v>
       </c>
+      <c r="F25" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -1029,10 +1041,10 @@
       <c r="C29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="11" t="s">
         <v>6</v>
       </c>
       <c r="F29" s="4" t="s">
@@ -1049,10 +1061,10 @@
       <c r="C30" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="12">
         <v>42453</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="12">
         <v>42453</v>
       </c>
     </row>
@@ -1066,10 +1078,10 @@
       <c r="C31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="12">
         <v>42453</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="12">
         <v>42453</v>
       </c>
     </row>
@@ -1144,10 +1156,10 @@
       <c r="C37" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="11" t="s">
         <v>6</v>
       </c>
       <c r="F37" s="4" t="s">

--- a/documentos/analise-de-projeto/planejamento-sprint-1.xlsx
+++ b/documentos/analise-de-projeto/planejamento-sprint-1.xlsx
@@ -78,9 +78,6 @@
     <t>Script BD</t>
   </si>
   <si>
-    <t>Criar Repositório</t>
-  </si>
-  <si>
     <t>Esforço</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>Apresentar aos colegas</t>
   </si>
   <si>
-    <t>Criar Ambiente de Desenvolvimento</t>
-  </si>
-  <si>
     <t>Instalar Netbeans 8.0</t>
   </si>
   <si>
@@ -174,13 +168,19 @@
     <t>Criar classe</t>
   </si>
   <si>
-    <t>Estória de Usuário: CH:4 ID:4 , CH:2 ID:3 - Contato cliente/profissional</t>
-  </si>
-  <si>
-    <t>()</t>
-  </si>
-  <si>
     <t>não tem dependencia</t>
+  </si>
+  <si>
+    <t>Estória de Usuário: CH:2, CH:4 ID:10 - Contato cliente/profissional</t>
+  </si>
+  <si>
+    <t>Estória de Usuário: CH:5 ID:24 - Criar Repositório GITHUB</t>
+  </si>
+  <si>
+    <t>Estória de Usuário: CH:5 ID:25 - Criar Ambiente de Desenvolvimento</t>
+  </si>
+  <si>
+    <t>Todos</t>
   </si>
 </sst>
 </file>
@@ -254,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -276,6 +276,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -682,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -712,14 +713,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="A6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -817,7 +818,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -836,14 +837,14 @@
       <c r="E15" s="7"/>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="A17" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -853,13 +854,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>7</v>
@@ -867,13 +868,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="7">
         <v>42450</v>
@@ -882,18 +883,18 @@
         <v>42450</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="7">
         <v>42450</v>
@@ -902,18 +903,18 @@
         <v>42450</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="7">
         <v>42450</v>
@@ -922,18 +923,18 @@
         <v>42450</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="7">
         <v>42450</v>
@@ -942,18 +943,18 @@
         <v>42450</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="7">
         <v>42450</v>
@@ -962,18 +963,18 @@
         <v>42450</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D24" s="7">
         <v>42450</v>
@@ -982,18 +983,18 @@
         <v>42450</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="7">
         <v>42453</v>
@@ -1002,34 +1003,34 @@
         <v>42453</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -1039,10 +1040,10 @@
         <v>4</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>6</v>
@@ -1053,13 +1054,13 @@
     </row>
     <row r="30" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="12">
         <v>42453</v>
@@ -1067,16 +1068,17 @@
       <c r="E30" s="12">
         <v>42453</v>
       </c>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="12">
         <v>42453</v>
@@ -1087,13 +1089,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="9">
         <v>42453</v>
@@ -1104,13 +1106,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="9">
         <v>42453</v>
@@ -1121,13 +1123,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D34" s="9">
         <v>42453</v>
@@ -1138,7 +1140,7 @@
     </row>
     <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1154,10 +1156,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>6</v>
@@ -1168,10 +1170,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1181,17 +1183,17 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1205,7 @@
     <mergeCell ref="A28:F28"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.13888888888888901" bottom="0.13888888888888901" header="0" footer="0"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;10&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;10Página &amp;P</oddFooter>

--- a/documentos/analise-de-projeto/planejamento-sprint-1.xlsx
+++ b/documentos/analise-de-projeto/planejamento-sprint-1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="78">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Realizar testes de conexao com o repositório</t>
   </si>
   <si>
-    <t>Matheus</t>
-  </si>
-  <si>
     <t>30 min</t>
   </si>
   <si>
@@ -132,45 +129,18 @@
     <t>Apresentar aos colegas</t>
   </si>
   <si>
-    <t>Instalar Netbeans 8.0</t>
-  </si>
-  <si>
     <t>Criar projeto teste e executar</t>
   </si>
   <si>
-    <t>Instalar Primefaces</t>
-  </si>
-  <si>
-    <t>Instalar Jquery</t>
-  </si>
-  <si>
     <t>Realizar conexaocom repositório</t>
   </si>
   <si>
     <t>2 horas</t>
   </si>
   <si>
-    <t>Estória de  usuários Buscar profissional</t>
-  </si>
-  <si>
-    <t>Criar fluxo de tela</t>
-  </si>
-  <si>
     <t>Caue</t>
   </si>
   <si>
-    <t>Criar banco</t>
-  </si>
-  <si>
-    <t>Criar a interface HTML</t>
-  </si>
-  <si>
-    <t>Criar classe</t>
-  </si>
-  <si>
-    <t>não tem dependencia</t>
-  </si>
-  <si>
     <t>Estória de Usuário: CH:2, CH:4 ID:10 - Contato cliente/profissional</t>
   </si>
   <si>
@@ -181,6 +151,108 @@
   </si>
   <si>
     <t>Todos</t>
+  </si>
+  <si>
+    <t>Estória de  Usuário: CH:2 ID:8 - Buscar profissional</t>
+  </si>
+  <si>
+    <t>Implementar classe modelo profissional</t>
+  </si>
+  <si>
+    <t>Criar a interface busca profissional</t>
+  </si>
+  <si>
+    <t>Criar a interface tela inicial cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar script BD </t>
+  </si>
+  <si>
+    <t>Detalhar fluxo de tela</t>
+  </si>
+  <si>
+    <t>Com atributos e funcionalidades necessárias</t>
+  </si>
+  <si>
+    <t>Dependência</t>
+  </si>
+  <si>
+    <t>Detalhar campos e regras necessárias para a funcionalide, utilizar fluxo Bruno</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>atributos, funcionalidades e ligações necessárias para a funcionalidade</t>
+  </si>
+  <si>
+    <t>detalhar campos necessários</t>
+  </si>
+  <si>
+    <t>Banco: tabela cliente, tabela profissional</t>
+  </si>
+  <si>
+    <t>Instalar Netbeans 8.1</t>
+  </si>
+  <si>
+    <t>Executar projeto repositório</t>
+  </si>
+  <si>
+    <t>Testar conexao alterando o projeto</t>
+  </si>
+  <si>
+    <t>Implementar classe modelo cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar classe DAO </t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
+    <t>Estudar API de mapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar testes </t>
+  </si>
+  <si>
+    <t>4 horas</t>
+  </si>
+  <si>
+    <t>Criar classe modelo Cliente</t>
+  </si>
+  <si>
+    <t>Criar classe modelo Profissional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar classe Beaking Bean Cadastra </t>
+  </si>
+  <si>
+    <t>Criar DAO cliente</t>
+  </si>
+  <si>
+    <t>Criar DAO profissional</t>
+  </si>
+  <si>
+    <t>Criar script BD</t>
+  </si>
+  <si>
+    <t>Com todos atributos necessários para cadastro</t>
+  </si>
+  <si>
+    <t>Com funcionalidades necessários para cadastro</t>
+  </si>
+  <si>
+    <t>Tabelas Cliente e Profissional</t>
+  </si>
+  <si>
+    <t>06/03/2-16</t>
+  </si>
+  <si>
+    <t>Estória de  Usuário: Realizar CRUD cliente e profissional</t>
+  </si>
+  <si>
+    <t>Estória de  Usuário: CH:6 ID:27 - Estudar API de mapas</t>
   </si>
 </sst>
 </file>
@@ -254,12 +326,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -267,16 +336,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -284,6 +369,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,520 +770,1096 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK42"/>
+  <dimension ref="A1:AMK62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.625" style="1"/>
-    <col min="2" max="2" width="36.625" style="1"/>
-    <col min="3" max="3" width="10.5" style="1"/>
+    <col min="1" max="1" width="5.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1"/>
-    <col min="5" max="6" width="12" style="1"/>
-    <col min="7" max="1025" width="8.875" style="1"/>
+    <col min="5" max="5" width="12" style="1"/>
+    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="78.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="1025" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="15">
+        <v>42456</v>
+      </c>
+      <c r="F8" s="16">
+        <v>42458</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="15">
+        <v>42457</v>
+      </c>
+      <c r="F9" s="16">
+        <v>42458</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="15">
+        <v>42459</v>
+      </c>
+      <c r="F10" s="16">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="15">
+        <v>42432</v>
+      </c>
+      <c r="F11" s="15">
+        <v>42432</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>5</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="15">
+        <v>42433</v>
+      </c>
+      <c r="F12" s="6">
+        <v>42433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>6</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="15">
+        <v>42434</v>
+      </c>
+      <c r="F13" s="15">
+        <v>42434</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>7</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="15">
+        <v>42435</v>
+      </c>
+      <c r="F14" s="15">
+        <v>42435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="15">
+        <v>42450</v>
+      </c>
+      <c r="F19" s="15">
+        <v>42450</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="15">
+        <v>42450</v>
+      </c>
+      <c r="F20" s="15">
+        <v>42450</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="15">
+        <v>42450</v>
+      </c>
+      <c r="F21" s="15">
+        <v>42450</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="15">
+        <v>42450</v>
+      </c>
+      <c r="F22" s="15">
+        <v>42450</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="15">
+        <v>42450</v>
+      </c>
+      <c r="F23" s="15">
+        <v>42450</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>13</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="15">
+        <v>42450</v>
+      </c>
+      <c r="F24" s="15">
+        <v>42450</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="15">
+        <v>42453</v>
+      </c>
+      <c r="F25" s="15">
+        <v>42453</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="1:8" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="1:8" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
+        <v>15</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="16">
+        <v>42453</v>
+      </c>
+      <c r="F30" s="16">
+        <v>42453</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12">
+        <v>16</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="16">
+        <v>42453</v>
+      </c>
+      <c r="F31" s="16">
+        <v>42453</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>17</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="18">
+        <v>42453</v>
+      </c>
+      <c r="F32" s="18">
+        <v>42453</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
+        <v>18</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="18">
+        <v>42453</v>
+      </c>
+      <c r="F33" s="18">
+        <v>42453</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
+        <v>19</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="18">
+        <v>42453</v>
+      </c>
+      <c r="F34" s="18">
+        <v>42453</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="C36" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
+        <v>20</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="18">
+        <v>42464</v>
+      </c>
+      <c r="F38" s="18">
+        <v>42464</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
+        <v>21</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="18">
+        <v>42463</v>
+      </c>
+      <c r="F39" s="18">
+        <v>42463</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
+        <v>22</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="23">
+        <v>42464</v>
+      </c>
+      <c r="F40" s="23">
+        <v>42464</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="11">
+        <v>23</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="23">
+        <v>42464</v>
+      </c>
+      <c r="F41" s="23">
+        <v>42464</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="11">
+        <v>24</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="23">
+        <v>42465</v>
+      </c>
+      <c r="F42" s="23">
+        <v>42465</v>
+      </c>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="11">
+        <v>25</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="23">
+        <v>42465</v>
+      </c>
+      <c r="F43" s="23">
+        <v>42465</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="11">
+        <v>26</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="23">
+        <v>42465</v>
+      </c>
+      <c r="F44" s="23">
+        <v>42465</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="12">
+        <v>27</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="23">
+        <v>42466</v>
+      </c>
+      <c r="F45" s="23">
+        <v>42466</v>
+      </c>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="12">
+        <v>28</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="23">
+        <v>42466</v>
+      </c>
+      <c r="F46" s="23">
+        <v>42466</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="C48" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="H49" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="11">
+        <v>29</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="7">
+        <v>42431</v>
+      </c>
+      <c r="F50" s="7">
+        <v>42433</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="11">
+        <v>30</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="7">
+        <v>42433</v>
+      </c>
+      <c r="F51" s="7">
+        <v>42435</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="11">
+        <v>31</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="7">
+        <v>42436</v>
+      </c>
+      <c r="F52" s="7">
+        <v>42436</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="11"/>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="C54" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="11">
+        <v>32</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7">
-        <v>42456</v>
-      </c>
-      <c r="E8" s="7">
-        <v>42458</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="7">
-        <v>42457</v>
-      </c>
-      <c r="E9" s="7">
-        <v>42458</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="7">
-        <v>42459</v>
-      </c>
-      <c r="E10" s="7">
-        <v>42430</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7">
-        <v>30</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="D56" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="7">
+        <v>42431</v>
+      </c>
+      <c r="F56" s="7">
+        <v>42431</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="11">
+        <v>33</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="D57" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="7">
+        <v>42432</v>
+      </c>
+      <c r="F57" s="7">
+        <v>42432</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="11">
+        <v>34</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="D58" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="7">
+        <v>42433</v>
+      </c>
+      <c r="F58" s="7">
+        <v>42433</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="11">
+        <v>35</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="7">
-        <v>42450</v>
-      </c>
-      <c r="E19" s="7">
-        <v>42450</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="7">
-        <v>42450</v>
-      </c>
-      <c r="E20" s="7">
-        <v>42450</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="7">
-        <v>42450</v>
-      </c>
-      <c r="E21" s="7">
-        <v>42450</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="7">
-        <v>42450</v>
-      </c>
-      <c r="E22" s="7">
-        <v>42450</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="E59" s="7">
+        <v>42434</v>
+      </c>
+      <c r="F59" s="7">
+        <v>42434</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="11">
+        <v>36</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="7">
+        <v>42434</v>
+      </c>
+      <c r="F60" s="7">
+        <v>42434</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="11">
+        <v>37</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="7">
-        <v>42450</v>
-      </c>
-      <c r="E23" s="7">
-        <v>42450</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="7">
-        <v>42450</v>
-      </c>
-      <c r="E24" s="7">
-        <v>42450</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="7">
-        <v>42453</v>
-      </c>
-      <c r="E25" s="7">
-        <v>42453</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="28" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="12">
-        <v>42453</v>
-      </c>
-      <c r="E30" s="12">
-        <v>42453</v>
-      </c>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="12">
-        <v>42453</v>
-      </c>
-      <c r="E31" s="12">
-        <v>42453</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="9">
-        <v>42453</v>
-      </c>
-      <c r="E32" s="9">
-        <v>42453</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="9">
-        <v>42453</v>
-      </c>
-      <c r="E33" s="9">
-        <v>42453</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="9">
-        <v>42453</v>
-      </c>
-      <c r="E34" s="9">
-        <v>42453</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="E61" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F61" s="7">
+        <v>42435</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G62" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/documentos/analise-de-projeto/planejamento-sprint-1.xlsx
+++ b/documentos/analise-de-projeto/planejamento-sprint-1.xlsx
@@ -249,10 +249,10 @@
     <t>06/03/2-16</t>
   </si>
   <si>
-    <t>Estória de  Usuário: Realizar CRUD cliente e profissional</t>
-  </si>
-  <si>
     <t>Estória de  Usuário: CH:6 ID:27 - Estudar API de mapas</t>
+  </si>
+  <si>
+    <t>Estória de  Usuário: CH:1 ID:1 e 2- Cadastrar Cliente e Profissional - CRUD</t>
   </si>
 </sst>
 </file>
@@ -362,6 +362,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -369,10 +373,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -805,14 +805,14 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -998,14 +998,14 @@
       <c r="E15" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -1195,30 +1195,30 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" spans="1:8" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:8" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -1444,10 +1444,10 @@
       <c r="D40" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="20">
         <v>42464</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="20">
         <v>42464</v>
       </c>
     </row>
@@ -1464,10 +1464,10 @@
       <c r="D41" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="20">
         <v>42464</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="20">
         <v>42464</v>
       </c>
     </row>
@@ -1484,10 +1484,10 @@
       <c r="D42" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="20">
         <v>42465</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="20">
         <v>42465</v>
       </c>
       <c r="G42" s="10"/>
@@ -1505,10 +1505,10 @@
       <c r="D43" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="20">
         <v>42465</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="20">
         <v>42465</v>
       </c>
     </row>
@@ -1525,10 +1525,10 @@
       <c r="D44" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="20">
         <v>42465</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F44" s="20">
         <v>42465</v>
       </c>
     </row>
@@ -1545,10 +1545,10 @@
       <c r="D45" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="20">
         <v>42466</v>
       </c>
-      <c r="F45" s="23">
+      <c r="F45" s="20">
         <v>42466</v>
       </c>
       <c r="G45" s="10"/>
@@ -1566,10 +1566,10 @@
       <c r="D46" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="20">
         <v>42466</v>
       </c>
-      <c r="F46" s="23">
+      <c r="F46" s="20">
         <v>42466</v>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C48" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="C54" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D54" s="14"/>
-      <c r="E54" s="22"/>
+      <c r="E54" s="19"/>
       <c r="F54" s="14"/>
       <c r="G54" s="9"/>
     </row>
